--- a/resources/Correspondance.xlsx
+++ b/resources/Correspondance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Piece" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="168">
   <si>
     <t>Cab. Toilette</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>Porte Fenetre_4V (3.80 x 2.10m) VR</t>
+  </si>
+  <si>
+    <t>"DGT":["Degagement","Degagement 2","Dégagement 2"],</t>
   </si>
 </sst>
 </file>
@@ -1346,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10871"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1358,7 @@
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="182.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1384,6 +1388,10 @@
       <c r="G2" t="s">
         <v>78</v>
       </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("""",F2,""":[""",G2,"""],")</f>
+        <v>"ASC":["NULL"],</v>
+      </c>
       <c r="J2" t="s">
         <v>82</v>
       </c>
@@ -1401,6 +1409,10 @@
       <c r="G3" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H23" si="0">CONCATENATE("""",F3,""":[""",G3,"""],")</f>
+        <v>"BAL":["?"],</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1415,6 +1427,10 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>"CEL":["Cellier"],</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1429,6 +1445,10 @@
       <c r="G5" t="s">
         <v>1</v>
       </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>"CH1":["Chambre 1"],</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1443,6 +1463,10 @@
       <c r="G6" t="s">
         <v>2</v>
       </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>"CH2":["Chambre 2"],</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1457,6 +1481,10 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>"CH3":["Chambre 3"],</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1471,6 +1499,10 @@
       <c r="G8" t="s">
         <v>4</v>
       </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>"CH4":["Chambre 4"],</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1485,6 +1517,10 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>"CUI":["Cuisine_901"],</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1499,6 +1535,9 @@
       <c r="G10" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1513,6 +1552,10 @@
       <c r="G11" t="s">
         <v>7</v>
       </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>"ENT":["Entrée_942"],</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1527,6 +1570,10 @@
       <c r="G12" t="s">
         <v>20</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>"ESC":["Escalier"],</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1541,6 +1588,10 @@
       <c r="G13" t="s">
         <v>79</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>"HAL":["?"],</v>
+      </c>
       <c r="J13" t="s">
         <v>82</v>
       </c>
@@ -1558,6 +1609,10 @@
       <c r="G14" t="s">
         <v>79</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>"LC":["?"],</v>
+      </c>
       <c r="J14" t="s">
         <v>82</v>
       </c>
@@ -1575,6 +1630,10 @@
       <c r="G15" t="s">
         <v>79</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>"LTA":["?"],</v>
+      </c>
       <c r="J15" t="s">
         <v>82</v>
       </c>
@@ -1592,6 +1651,10 @@
       <c r="G16" t="s">
         <v>79</v>
       </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>"LTE":["?"],</v>
+      </c>
       <c r="J16" t="s">
         <v>82</v>
       </c>
@@ -1609,6 +1672,10 @@
       <c r="G17" t="s">
         <v>79</v>
       </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>"LVO":["?"],</v>
+      </c>
       <c r="J17" t="s">
         <v>82</v>
       </c>
@@ -1626,6 +1693,10 @@
       <c r="G18" t="s">
         <v>79</v>
       </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAL":["?"],</v>
+      </c>
       <c r="J18" t="s">
         <v>82</v>
       </c>
@@ -1643,6 +1714,21 @@
       <c r="G19" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>"PLA":["Placard 1 CH1
+Placard 1 CH2
+Placard 1 CH3
+Placard 1 Dégag. 1
+Placard 1 Dégag. 2
+Placard 1 Entrée
+Placard 1 Entrée Dégagement
+Placard 1 Pièce Principale
+Placard 1 SBD
+Placard 1 Séjour
+Placard 2 CH2
+Placard 2 Entrée"],</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1655,6 +1741,10 @@
         <v>71</v>
       </c>
       <c r="G20" s="3"/>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>"PLT":[""],</v>
+      </c>
       <c r="J20" t="s">
         <v>82</v>
       </c>
@@ -1672,6 +1762,12 @@
       <c r="G21" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>"SDB":["Bain et WC
+Salle de bain
+Salle d'eau et WC"],</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1684,6 +1780,10 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>"SEJ":["Sejour"],</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1696,6 +1796,10 @@
       <c r="G23" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>"WC":["WC"],</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -34357,10 +34461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34370,7 +34474,7 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
@@ -34381,7 +34485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -34391,8 +34495,12 @@
       <c r="C2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>CONCATENATE("""",B2,""":""",C2,""",")</f>
+        <v>"Bac à douche (0.80 x 0.80 m)":"Receveur de douche",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -34402,8 +34510,12 @@
       <c r="C3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D29" si="0">CONCATENATE("""",B3,""":""",C3,""",")</f>
+        <v>"Baignoire (1.61 x 0.70 m)":"Baignoire",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>120</v>
       </c>
@@ -34413,8 +34525,12 @@
       <c r="C4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Evier":"Evier",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -34424,8 +34540,12 @@
       <c r="C5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fenetre_1V (0.90 x 1.50m) VR":"Fenêtre",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>134</v>
       </c>
@@ -34435,8 +34555,12 @@
       <c r="C6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lavabo":"Lavabo",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -34446,8 +34570,12 @@
       <c r="C7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Meuble sous evier":"Meuble sous évier",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -34457,32 +34585,48 @@
       <c r="C8" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Meuble sous lavabo":"Meuble sous évier",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Placard 2 panneaux (largeur totale 0.65m)":"",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Placard 2 panneaux (largeur totale 0.80m)":"",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>140</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Placard 2 panneaux (largeur totale 1.00m)":"",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -34492,8 +34636,12 @@
       <c r="C12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Porte d'entree logement (0.90m x 2.15m)":"Porte d'entrée",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -34503,8 +34651,12 @@
       <c r="C13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Porte Fenetre_1V (0.95 x 2.10m) VR":"Porte-fenêtre",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -34514,8 +34666,12 @@
       <c r="C14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Porte Fenetre_3V (2.85 x 2.10m) VR":"Porte-fenêtre",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -34525,8 +34681,12 @@
       <c r="C15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Porte Fenetre_4V (3.80 x 2.10m) VR":"Porte-fenêtre",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -34536,8 +34696,12 @@
       <c r="C16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Portes interieures (0.40m x 2.10m)":"Porte",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -34547,8 +34711,12 @@
       <c r="C17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Portes interieures (0.73m x 2.04m)":"Porte",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>103</v>
       </c>
@@ -34558,8 +34726,12 @@
       <c r="C18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Portes interieures (0.83m x 2.10m)":"Porte",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -34569,8 +34741,12 @@
       <c r="C19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Portes interieures doubles (0.70/0.32m x 2.04m)":"Porte",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
@@ -34580,8 +34756,12 @@
       <c r="C20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Portes interieures doubles (0.83/0.32m x 2.10m)":"Porte",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -34591,8 +34771,12 @@
       <c r="C21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Programateur thermostat":"Thermostat d'ambiance",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -34602,8 +34786,12 @@
       <c r="C22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Radiateur":"Radiateur",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -34613,8 +34801,12 @@
       <c r="C23" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Robinet":"Robinetterie",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -34624,8 +34816,12 @@
       <c r="C24" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>"Robinet douche":"Robinetterie",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>133</v>
       </c>
@@ -34635,8 +34831,12 @@
       <c r="C25" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Robinet thermostatique":"Robinetterie",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>92</v>
       </c>
@@ -34646,8 +34846,12 @@
       <c r="C26" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Robinetterie sanitaire":"Robinetterie",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -34657,8 +34861,12 @@
       <c r="C27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tableau electrique logement":"Tableau électrique",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>105</v>
       </c>
@@ -34668,8 +34876,12 @@
       <c r="C28" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Visiophone/interphone logement":"Interphone",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -34679,20 +34891,24 @@
       <c r="C29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>"WC standard":"Cuvette wc",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>118</v>
       </c>
